--- a/biology/Zoologie/Calao_charbonnier/Calao_charbonnier.xlsx
+++ b/biology/Zoologie/Calao_charbonnier/Calao_charbonnier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthracoceros malayanus
 Le Calao charbonnier (Anthracoceros malayanus) est une espèce d'oiseau de la famille des Bucerotidae. Son aire de répartition s'étend sur la Thaïlande, la Malaisie, Brunei et l'Indonésie. Il semble avoir disparu de Singapour.
